--- a/src/models/baselines/XGBoost/results/synthetic/position/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/synthetic/position/metrics.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="C2" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="D10" t="n">
         <v>0.5</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.851389114294502e-17</v>
+        <v>0.01054092553389458</v>
       </c>
       <c r="C3" t="n">
-        <v>5.851389114294502e-17</v>
+        <v>0.01054092553389458</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
